--- a/notes/tfidf.xlsx
+++ b/notes/tfidf.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27106"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parrt/github/msan692/notes/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10180" yWindow="3180" windowWidth="26240" windowHeight="19880" tabRatio="500"/>
+    <workbookView xWindow="24040" yWindow="7540" windowWidth="20540" windowHeight="19880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>angeles</t>
   </si>
@@ -57,16 +65,28 @@
     <t>d3</t>
   </si>
   <si>
-    <t>document</t>
-  </si>
-  <si>
     <t>df(t,N)</t>
   </si>
   <si>
-    <t>length</t>
-  </si>
-  <si>
     <t>log10(1/df)</t>
+  </si>
+  <si>
+    <t>TFIDF scores</t>
+  </si>
+  <si>
+    <t>Term Counts</t>
+  </si>
+  <si>
+    <t>Term Frequencies</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>terms</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -154,7 +174,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -166,6 +186,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -191,6 +220,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -516,154 +550,389 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B19"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="7.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" customWidth="1"/>
-    <col min="12" max="12" width="6" customWidth="1"/>
-    <col min="13" max="13" width="6.5" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" customWidth="1"/>
+    <col min="9" max="9" width="3" customWidth="1"/>
+    <col min="10" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" customWidth="1"/>
+    <col min="13" max="13" width="2.6640625" customWidth="1"/>
+    <col min="14" max="14" width="7" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" customWidth="1"/>
+    <col min="16" max="16" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <f>B2/3</f>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <f>B3/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D2" s="2">
-        <f>LOG(1/C2)</f>
+      <c r="D3" s="2">
+        <f>LOG(1/C3)</f>
         <v>0.47712125471966244</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:C9" si="0">B3/3</f>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="8">
+        <f>F3/$F$12</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <f>G3/$G$12</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
+        <f>H3/$H$12</f>
+        <v>0.25</v>
+      </c>
+      <c r="N3">
+        <f>J3*D3</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>K3*D3</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <f>L3*D3</f>
+        <v>0.11928031367991561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C10" si="0">B4/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D9" si="1">LOG(1/C3)</f>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D10" si="1">LOG(1/C4)</f>
         <v>0.47712125471966244</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
+      <c r="F4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="8">
+        <f t="shared" ref="J4:J10" si="2">F4/$F$12</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K4" s="8">
+        <f t="shared" ref="K4:K10" si="3">G4/$G$12</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <f t="shared" ref="L4:L10" si="4">H4/$H$12</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" ref="N4:N10" si="5">J4*D4</f>
+        <v>0.15904041823988746</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O10" si="6">K4*D4</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P10" si="7">L4*D4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <f t="shared" si="1"/>
         <v>0.47712125471966244</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3" t="s">
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="7"/>
+        <v>0.11928031367991561</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D5" s="2">
-        <f>LOG(1/C5)</f>
+      <c r="D6" s="2">
+        <f>LOG(1/C6)</f>
         <v>0.17609125905568124</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="3" t="s">
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="8">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K6" s="8">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="5"/>
+        <v>2.9348543175946873E-2</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="6"/>
+        <v>4.4022814763920309E-2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <f t="shared" si="1"/>
         <v>0.47712125471966244</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3" t="s">
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="6"/>
+        <v>0.11928031367991561</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>0.17609125905568124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="8">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -676,282 +945,190 @@
         <f t="shared" si="1"/>
         <v>0.17609125905568124</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="8">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
+        <v>2.9348543175946873E-2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="7"/>
+        <v>4.4022814763920309E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.17609125905568124</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="8">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="5"/>
+        <v>2.9348543175946873E-2</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="6"/>
+        <v>4.4022814763920309E-2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="1">
+        <f>SUM(F3:F10)</f>
+        <v>6</v>
+      </c>
+      <c r="G12" s="1">
+        <f>SUM(G3:G10)</f>
         <v>4</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="K13">
+      <c r="H12" s="1">
+        <f>SUM(H3:H10)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1">
-        <f>B12/K12*$D$2</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <f>C12/K12*$D$3</f>
-        <v>0.15904041823988746</v>
-      </c>
-      <c r="D17" s="1">
-        <f>D12/K12*$D$4</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <f>E12/K12*$D$5</f>
-        <v>2.9348543175946873E-2</v>
-      </c>
-      <c r="F17" s="1">
-        <f>F12/K12*$D$6</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <f>G12/K12*$D$7</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <f>H12/K12*$D$8</f>
-        <v>2.9348543175946873E-2</v>
-      </c>
-      <c r="I17" s="1">
-        <f>I12/K12*$D$9</f>
-        <v>2.9348543175946873E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1">
-        <f t="shared" ref="B18:B19" si="2">B13/K13*$D$2</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" ref="C18:C19" si="3">C13/K13*$D$3</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" ref="D18:D19" si="4">D13/K13*$D$4</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" ref="E18:E19" si="5">E13/K13*$D$5</f>
-        <v>4.4022814763920309E-2</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" ref="F18:F19" si="6">F13/K13*$D$6</f>
-        <v>0.11928031367991561</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" ref="G18:G19" si="7">G13/K13*$D$7</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" ref="H18:H19" si="8">H13/K13*$D$8</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" ref="I18:I19" si="9">I13/K13*$D$9</f>
-        <v>4.4022814763920309E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="1">
-        <f t="shared" si="2"/>
-        <v>0.11928031367991561</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="4"/>
-        <v>0.11928031367991561</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="8"/>
-        <v>4.4022814763920309E-2</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>